--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>57.84876214007866</v>
+        <v>57.58554619344395</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>10.43113194279123</v>
+        <v>10.56660191919569</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.06717279532506</v>
+        <v>9.87352512641654</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>8.462599642813972</v>
+        <v>8.586100543932243</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>6.907314990151402</v>
+        <v>6.828612662894851</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>6.283018488839678</v>
+        <v>6.559613554116723</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>57.58554619344395</v>
+        <v>57.77627387403908</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>10.56660191919569</v>
+        <v>10.50512439712741</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.87352512641654</v>
+        <v>9.861220867180979</v>
       </c>
     </row>
     <row r="5">
@@ -406,27 +406,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>8.586100543932243</v>
+        <v>8.631631206992598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SuspendedParticulateMatter</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.828612662894851</v>
+        <v>6.63658334740203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SuspendedParticulateMatter</t>
         </is>
       </c>
       <c r="B7">
-        <v>6.559613554116723</v>
+        <v>6.589166307257903</v>
       </c>
     </row>
   </sheetData>
